--- a/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
+++ b/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="447">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -536,42 +536,6 @@
     <t>NFC Device Device plan</t>
   </si>
   <si>
-    <t>TC264326_Embossing File Generation</t>
-  </si>
-  <si>
-    <t>Static Virtual Card [7]</t>
-  </si>
-  <si>
-    <t>Aut016</t>
-  </si>
-  <si>
-    <t>HDFCVendor06</t>
-  </si>
-  <si>
-    <t>StaticVirtualDeviceProgram</t>
-  </si>
-  <si>
-    <t>Static Virtual card Device plan</t>
-  </si>
-  <si>
-    <t>TC264329_Embossing File Generation</t>
-  </si>
-  <si>
-    <t>Limited Validity Virtual Card [8]</t>
-  </si>
-  <si>
-    <t>Aut017</t>
-  </si>
-  <si>
-    <t>HDFCVendor07</t>
-  </si>
-  <si>
-    <t>LimitedValidityVirtualDeviceProgram</t>
-  </si>
-  <si>
-    <t>Limited Validity Virtual Card Device plan</t>
-  </si>
-  <si>
     <t>PerTransactionLimit</t>
   </si>
   <si>
@@ -758,12 +722,6 @@
     <t>HDFCVendor05 [Aut015]</t>
   </si>
   <si>
-    <t>HDFCVendor06 [Aut016]</t>
-  </si>
-  <si>
-    <t>HDFCVendor07 [Aut017]</t>
-  </si>
-  <si>
     <t>PRIYA</t>
   </si>
   <si>
@@ -1256,9 +1214,6 @@
     <t>8520</t>
   </si>
   <si>
-    <t>ONUS [088150]</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -1280,9 +1235,6 @@
     <t>411006</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>March/1/2018</t>
   </si>
   <si>
@@ -1304,30 +1256,12 @@
     <t>222</t>
   </si>
   <si>
-    <t>1E+12</t>
-  </si>
-  <si>
     <t>333</t>
   </si>
   <si>
     <t>444</t>
   </si>
   <si>
-    <t>FEMAVG [616161]</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>155074</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
     <t>EndDate</t>
   </si>
   <si>
@@ -1364,21 +1298,6 @@
     <t>Length4</t>
   </si>
   <si>
-    <t>Field5</t>
-  </si>
-  <si>
-    <t>Length5</t>
-  </si>
-  <si>
-    <t>Field6</t>
-  </si>
-  <si>
-    <t>Length6</t>
-  </si>
-  <si>
-    <t>iPKExpiryDate</t>
-  </si>
-  <si>
     <t>March/10/2020</t>
   </si>
   <si>
@@ -1394,10 +1313,61 @@
     <t>Product Currency</t>
   </si>
   <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
-    <t>March/10/2050</t>
+    <t>KYCRequired</t>
+  </si>
+  <si>
+    <t>MaximumBalanceAfterKYC</t>
+  </si>
+  <si>
+    <t>LoadsAfterKYC</t>
+  </si>
+  <si>
+    <t>WalletPlancode</t>
+  </si>
+  <si>
+    <t>WalletPlanDescription</t>
+  </si>
+  <si>
+    <t>AUTO [121212]</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>588765</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TC264306_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>5552200</t>
+  </si>
+  <si>
+    <t>TC264315_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>TC264318_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>TC264319_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>TC264321_Embossing File Generation_VISA</t>
   </si>
 </sst>
 </file>
@@ -1915,20 +1885,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2119,12 +2089,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -2306,12 +2276,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -2495,12 +2465,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2511,73 +2481,73 @@
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
@@ -2589,10 +2559,10 @@
         <v>11111111111</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N2" s="11">
         <v>123460</v>
@@ -2601,36 +2571,36 @@
         <v>11111111111</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -2642,10 +2612,10 @@
         <v>11111111111</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N3" s="11">
         <v>123461</v>
@@ -2654,36 +2624,36 @@
         <v>11111111111</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -2695,10 +2665,10 @@
         <v>11111111111</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N4" s="11">
         <v>123461</v>
@@ -2707,36 +2677,36 @@
         <v>11111111111</v>
       </c>
       <c r="P4" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>291</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -2748,10 +2718,10 @@
         <v>11111111111</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N5" s="11">
         <v>123460</v>
@@ -2760,36 +2730,36 @@
         <v>11111111111</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
@@ -2801,10 +2771,10 @@
         <v>11111111111</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N6" s="11">
         <v>123460</v>
@@ -2813,10 +2783,10 @@
         <v>11111111111</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2832,29 +2802,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2863,144 +2833,144 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3016,127 +2986,127 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3154,147 +3124,147 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3313,87 +3283,87 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3413,37 +3383,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CU3" sqref="CU3"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CL4" sqref="A1:DM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3482,10 +3452,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -3581,7 +3551,7 @@
         <v>21</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AY1" s="4" t="s">
         <v>22</v>
@@ -3635,175 +3605,175 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="BU1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="CC1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="CG1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CE1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CO1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CP1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="CR1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CS1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="CU1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="CV1" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="CW1" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="CX1" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="CY1" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="CZ1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="DA1" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="DB1" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="DC1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="DE1" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="DF1" s="4" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="DI1" s="4" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -3826,34 +3796,34 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -3868,7 +3838,7 @@
         <v>120</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>119</v>
@@ -3877,7 +3847,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -3886,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -3898,7 +3868,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -3907,13 +3877,13 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ2" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>147</v>
@@ -3929,7 +3899,7 @@
       </c>
       <c r="AW2" s="29"/>
       <c r="AX2" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY2" s="28" t="s">
         <v>30</v>
@@ -3941,19 +3911,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -3963,7 +3933,7 @@
         <v>143</v>
       </c>
       <c r="BJ2" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK2" s="28" t="s">
         <v>136</v>
@@ -3981,156 +3951,158 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="BR2" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="9"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9" t="s">
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BX2" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY2" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="CA2" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA2" s="28" t="s">
+      <c r="CD2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB2" s="9" t="s">
+      <c r="CE2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC2" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="9" t="s">
+      <c r="CF2" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH2" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI2" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ2" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK2" s="28" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="CL2" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM2" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN2" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CM2" s="9" t="s">
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN2" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO2" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP2" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ2" s="28" t="s">
+      <c r="CS2" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT2" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="CU2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="CV2" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="CW2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CY2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ2" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="DA2" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="CR2" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="CS2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CT2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="CU2" s="9">
-        <v>100</v>
-      </c>
-      <c r="CV2" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="CW2" s="9">
-        <v>5</v>
-      </c>
-      <c r="CX2" s="9">
-        <v>12</v>
-      </c>
-      <c r="CY2" s="9" t="s">
+      <c r="DB2" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="DD2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="CZ2" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="DA2" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="DB2" s="9">
-        <v>6</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="DD2" s="9">
-        <v>2</v>
-      </c>
       <c r="DE2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="DF2" s="9">
-        <v>1</v>
+        <v>424</v>
+      </c>
+      <c r="DF2" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="DH2" s="9">
-        <v>3</v>
+        <v>439</v>
+      </c>
+      <c r="DH2" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="DJ2" s="9">
-        <v>3</v>
-      </c>
-      <c r="DK2" s="9"/>
-      <c r="DL2" s="9"/>
+        <v>342</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DK2" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="DL2" s="9" t="s">
+        <v>427</v>
+      </c>
       <c r="DM2" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>140</v>
+        <v>441</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4149,38 +4121,38 @@
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="28" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4195,7 +4167,7 @@
         <v>120</v>
       </c>
       <c r="AC3" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>119</v>
@@ -4204,7 +4176,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4213,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4225,7 +4197,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4234,29 +4206,29 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ3" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS3" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AT3" s="28" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AU3" s="28" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="AV3" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW3" s="29"/>
       <c r="AX3" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY3" s="28" t="s">
         <v>30</v>
@@ -4268,29 +4240,29 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH3" s="28"/>
       <c r="BI3" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BJ3" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK3" s="28" t="s">
         <v>136</v>
@@ -4308,108 +4280,158 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR3" s="28"/>
+        <v>400</v>
+      </c>
+      <c r="BR3" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="BS3" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB3" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF3" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="CI3" s="28"/>
+      <c r="CJ3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="CL3" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM3" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN3" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO3" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="CS3" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT3" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU3" s="9">
+        <v>12</v>
+      </c>
+      <c r="CV3" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW3" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX3" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="CY3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ3" s="31">
+        <v>100</v>
+      </c>
+      <c r="DA3" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="DB3" s="31">
+        <v>5</v>
+      </c>
+      <c r="DC3" s="31">
+        <v>12</v>
+      </c>
+      <c r="DD3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="DE3" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="DF3" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="BT3" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="BU3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV3" s="9"/>
-      <c r="BW3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="BX3" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY3" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="CC3" s="9"/>
-      <c r="CD3" s="9"/>
-      <c r="CE3" s="9"/>
-      <c r="CF3" s="28"/>
-      <c r="CG3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH3" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI3" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ3" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="CK3" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="CL3" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM3" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="CN3" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO3" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP3" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ3" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR3" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="CS3" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>53</v>
-      </c>
-      <c r="CU3" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+      <c r="DG3" s="31">
+        <v>6</v>
+      </c>
+      <c r="DH3" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="DI3" s="31">
+        <v>2</v>
+      </c>
+      <c r="DJ3" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="DK3" s="31">
+        <v>1</v>
+      </c>
+      <c r="DL3" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="DM3" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4428,38 +4450,38 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4474,7 +4496,7 @@
         <v>120</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD4" s="9" t="s">
         <v>119</v>
@@ -4483,7 +4505,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4492,7 +4514,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4504,7 +4526,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4513,29 +4535,29 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ4" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS4" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW4" s="29"/>
       <c r="AX4" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY4" s="28" t="s">
         <v>30</v>
@@ -4547,29 +4569,29 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH4" s="28"/>
       <c r="BI4" s="28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="BJ4" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK4" s="28" t="s">
         <v>136</v>
@@ -4587,108 +4609,130 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR4" s="28"/>
+        <v>400</v>
+      </c>
+      <c r="BR4" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="BS4" s="9" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="BU4" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="BX4" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY4" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="BY4" s="9"/>
       <c r="BZ4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB4" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA4" s="9" t="s">
+      <c r="CD4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB4" s="9" t="s">
+      <c r="CE4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="9"/>
-      <c r="CE4" s="9"/>
       <c r="CF4" s="28"/>
-      <c r="CG4" s="9" t="s">
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="CI4" s="28"/>
+      <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH4" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI4" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ4" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK4" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="CL4" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM4" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN4" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO4" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM4" s="28" t="s">
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN4" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO4" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP4" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ4" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR4" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="CS4" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT4" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU4" s="9">
+        <v>12</v>
+      </c>
+      <c r="CV4" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW4" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX4" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CY4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU4" s="2">
+      <c r="CZ4" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DA4" s="31"/>
+      <c r="DB4" s="31"/>
+      <c r="DC4" s="31"/>
+      <c r="DD4" s="31"/>
+      <c r="DE4" s="31"/>
+      <c r="DF4" s="31"/>
+      <c r="DG4" s="31"/>
+      <c r="DH4" s="31"/>
+      <c r="DI4" s="31"/>
+      <c r="DJ4" s="31"/>
+      <c r="DK4" s="31"/>
+      <c r="DL4" s="31"/>
+      <c r="DM4" s="31"/>
+    </row>
+    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -4707,38 +4751,38 @@
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="28" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -4753,7 +4797,7 @@
         <v>120</v>
       </c>
       <c r="AC5" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>119</v>
@@ -4762,7 +4806,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -4771,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -4783,7 +4827,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -4792,29 +4836,29 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ5" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS5" s="28" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AT5" s="28" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="AU5" s="28" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW5" s="29"/>
       <c r="AX5" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY5" s="28" t="s">
         <v>30</v>
@@ -4826,29 +4870,29 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH5" s="28"/>
       <c r="BI5" s="28" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="BJ5" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK5" s="28" t="s">
         <v>136</v>
@@ -4866,108 +4910,130 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR5" s="28"/>
+        <v>400</v>
+      </c>
+      <c r="BR5" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="BS5" s="9" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="BU5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV5" s="9"/>
-      <c r="BW5" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="BY5" s="9"/>
       <c r="BZ5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA5" s="9" t="s">
+      <c r="CD5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB5" s="9" t="s">
+      <c r="CE5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC5" s="9"/>
-      <c r="CD5" s="9"/>
-      <c r="CE5" s="9"/>
       <c r="CF5" s="28"/>
-      <c r="CG5" s="9" t="s">
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH5" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI5" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ5" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK5" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="CL5" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM5" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN5" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM5" s="28" t="s">
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN5" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO5" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP5" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ5" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR5" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="CS5" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT5" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU5" s="9">
+        <v>12</v>
+      </c>
+      <c r="CV5" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW5" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX5" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CT5" t="s">
+      <c r="CY5" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU5" s="2">
+      <c r="CZ5" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DA5" s="31"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="31"/>
+      <c r="DE5" s="31"/>
+      <c r="DF5" s="31"/>
+      <c r="DG5" s="31"/>
+      <c r="DH5" s="31"/>
+      <c r="DI5" s="31"/>
+      <c r="DJ5" s="31"/>
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="31"/>
+      <c r="DM5" s="31"/>
+    </row>
+    <row r="6" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -4986,38 +5052,38 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="28" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U6" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5032,7 +5098,7 @@
         <v>120</v>
       </c>
       <c r="AC6" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD6" s="9" t="s">
         <v>119</v>
@@ -5041,7 +5107,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5050,7 +5116,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5062,7 +5128,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5071,29 +5137,29 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ6" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS6" s="28" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AT6" s="28" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AU6" s="28" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW6" s="29"/>
       <c r="AX6" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY6" s="28" t="s">
         <v>30</v>
@@ -5105,29 +5171,29 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH6" s="28"/>
       <c r="BI6" s="28" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="BJ6" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK6" s="28" t="s">
         <v>136</v>
@@ -5145,108 +5211,130 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR6" s="28"/>
+        <v>400</v>
+      </c>
+      <c r="BR6" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="BS6" s="9" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="BU6" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="BX6" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY6" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="BY6" s="9"/>
       <c r="BZ6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB6" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA6" s="9" t="s">
+      <c r="CD6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB6" s="9" t="s">
+      <c r="CE6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC6" s="9"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="9"/>
       <c r="CF6" s="28"/>
-      <c r="CG6" s="9" t="s">
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="CI6" s="28"/>
+      <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH6" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI6" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ6" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK6" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="CL6" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM6" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN6" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM6" s="28" t="s">
+      <c r="CP6" s="28"/>
+      <c r="CQ6" s="28"/>
+      <c r="CR6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN6" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO6" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP6" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ6" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR6" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="CS6" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT6" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU6" s="9">
+        <v>12</v>
+      </c>
+      <c r="CV6" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW6" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX6" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CT6" t="s">
+      <c r="CY6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU6" s="2">
+      <c r="CZ6" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DA6" s="31"/>
+      <c r="DB6" s="31"/>
+      <c r="DC6" s="31"/>
+      <c r="DD6" s="31"/>
+      <c r="DE6" s="31"/>
+      <c r="DF6" s="31"/>
+      <c r="DG6" s="31"/>
+      <c r="DH6" s="31"/>
+      <c r="DI6" s="31"/>
+      <c r="DJ6" s="31"/>
+      <c r="DK6" s="31"/>
+      <c r="DL6" s="31"/>
+      <c r="DM6" s="31"/>
+    </row>
+    <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>169</v>
+        <v>444</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5265,38 +5353,38 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="28" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5311,7 +5399,7 @@
         <v>120</v>
       </c>
       <c r="AC7" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD7" s="9" t="s">
         <v>119</v>
@@ -5320,7 +5408,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5329,7 +5417,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5341,7 +5429,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5350,29 +5438,29 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ7" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AT7" s="28" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW7" s="29"/>
       <c r="AX7" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY7" s="28" t="s">
         <v>30</v>
@@ -5384,29 +5472,29 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH7" s="28"/>
       <c r="BI7" s="28" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="BJ7" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK7" s="28" t="s">
         <v>136</v>
@@ -5424,110 +5512,130 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR7" s="28"/>
+        <v>400</v>
+      </c>
+      <c r="BR7" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="BS7" s="9" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="BU7" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV7" s="9"/>
-      <c r="BW7" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="BX7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY7" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="BY7" s="9"/>
       <c r="BZ7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB7" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA7" s="9" t="s">
+      <c r="CD7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB7" s="9" t="s">
+      <c r="CE7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC7" s="9"/>
-      <c r="CD7" s="9"/>
-      <c r="CE7" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="CF7" s="28"/>
-      <c r="CG7" s="9" t="s">
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="CI7" s="28"/>
+      <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH7" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI7" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ7" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK7" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="CL7" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM7" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN7" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM7" s="28" t="s">
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN7" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO7" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP7" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ7" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR7" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="CS7" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT7" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU7" s="9">
+        <v>12</v>
+      </c>
+      <c r="CV7" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW7" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX7" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CT7" t="s">
+      <c r="CY7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU7" s="2">
+      <c r="CZ7" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DA7" s="31"/>
+      <c r="DB7" s="31"/>
+      <c r="DC7" s="31"/>
+      <c r="DD7" s="31"/>
+      <c r="DE7" s="31"/>
+      <c r="DF7" s="31"/>
+      <c r="DG7" s="31"/>
+      <c r="DH7" s="31"/>
+      <c r="DI7" s="31"/>
+      <c r="DJ7" s="31"/>
+      <c r="DK7" s="31"/>
+      <c r="DL7" s="31"/>
+      <c r="DM7" s="31"/>
+    </row>
+    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5546,38 +5654,38 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="28" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="U8" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5592,7 +5700,7 @@
         <v>120</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD8" s="9" t="s">
         <v>119</v>
@@ -5601,7 +5709,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -5610,7 +5718,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -5622,7 +5730,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -5631,29 +5739,29 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AQ8" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AS8" s="28" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AT8" s="28" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AU8" s="28" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW8" s="29"/>
       <c r="AX8" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AY8" s="28" t="s">
         <v>30</v>
@@ -5665,29 +5773,29 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH8" s="28"/>
       <c r="BI8" s="28" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="BJ8" s="28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="BK8" s="28" t="s">
         <v>136</v>
@@ -5705,615 +5813,1511 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="BR8" s="28"/>
+        <v>400</v>
+      </c>
+      <c r="BR8" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="BS8" s="9" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="BU8" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV8" s="9"/>
-      <c r="BW8" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="BX8" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY8" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="BY8" s="9"/>
       <c r="BZ8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB8" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="CC8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA8" s="9" t="s">
+      <c r="CD8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB8" s="9" t="s">
+      <c r="CE8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC8" s="9"/>
-      <c r="CD8" s="9"/>
-      <c r="CE8" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="CF8" s="28"/>
-      <c r="CG8" s="9" t="s">
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="CI8" s="28"/>
+      <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH8" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI8" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CJ8" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK8" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="CL8" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM8" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN8" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CO8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM8" s="28" t="s">
+      <c r="CP8" s="28"/>
+      <c r="CQ8" s="28"/>
+      <c r="CR8" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN8" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO8" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP8" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ8" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR8" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="CS8" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT8" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU8" s="9">
+        <v>12</v>
+      </c>
+      <c r="CV8" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW8" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX8" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CT8" t="s">
+      <c r="CY8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU8" s="2">
+      <c r="CZ8" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="CS9"/>
-      <c r="CT9" t="s">
+      <c r="DA8" s="31"/>
+      <c r="DB8" s="31"/>
+      <c r="DC8" s="31"/>
+      <c r="DD8" s="31"/>
+      <c r="DE8" s="31"/>
+      <c r="DF8" s="31"/>
+      <c r="DG8" s="31"/>
+      <c r="DH8" s="31"/>
+      <c r="DI8" s="31"/>
+      <c r="DJ8" s="31"/>
+      <c r="DK8" s="31"/>
+      <c r="DL8" s="31"/>
+      <c r="DM8" s="31"/>
+    </row>
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="31">
+        <v>455854</v>
+      </c>
+      <c r="D9" s="31">
+        <v>8520</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="31">
+        <v>50</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="31">
+        <v>1989</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="X9" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>444</v>
+      </c>
+      <c r="AG9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO9" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>2</v>
+      </c>
+      <c r="AS9" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT9" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU9" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" s="31">
+        <v>411006</v>
+      </c>
+      <c r="BC9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD9" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="BE9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="BG9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL9" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM9" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO9" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP9" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="31">
+        <v>12</v>
+      </c>
+      <c r="BR9" s="31">
+        <v>2</v>
+      </c>
+      <c r="BS9" s="31">
+        <v>20</v>
+      </c>
+      <c r="BT9" s="31">
+        <v>2</v>
+      </c>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31"/>
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB9" s="31">
+        <v>2</v>
+      </c>
+      <c r="CC9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE9" s="31">
+        <v>43800</v>
+      </c>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31">
+        <v>552200</v>
+      </c>
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK9" s="31">
+        <v>10000</v>
+      </c>
+      <c r="CL9" s="31">
+        <v>12</v>
+      </c>
+      <c r="CM9" s="31">
+        <v>5000</v>
+      </c>
+      <c r="CN9" s="31">
+        <v>20000</v>
+      </c>
+      <c r="CO9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP9" s="31"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="CS9" s="31">
+        <v>10000</v>
+      </c>
+      <c r="CT9" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU9" s="31">
+        <v>12</v>
+      </c>
+      <c r="CV9" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW9" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX9" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CU9">
+      <c r="CY9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ9" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="CS10"/>
-      <c r="CT10" t="s">
+      <c r="DA9" s="31"/>
+      <c r="DB9" s="31"/>
+      <c r="DC9" s="31"/>
+      <c r="DD9" s="31"/>
+      <c r="DE9" s="31"/>
+      <c r="DF9" s="31"/>
+      <c r="DG9" s="31"/>
+      <c r="DH9" s="31"/>
+      <c r="DI9" s="31"/>
+      <c r="DJ9" s="31"/>
+      <c r="DK9" s="31"/>
+      <c r="DL9" s="31"/>
+      <c r="DM9" s="31"/>
+    </row>
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="31">
+        <v>455854</v>
+      </c>
+      <c r="D10" s="31">
+        <v>8520</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="31">
+        <v>50</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="31">
+        <v>1989</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC10" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD10" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="31">
+        <v>555</v>
+      </c>
+      <c r="AG10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP10" s="31">
+        <v>12</v>
+      </c>
+      <c r="AQ10" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR10" s="31">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT10" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU10" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB10" s="31">
+        <v>411006</v>
+      </c>
+      <c r="BC10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD10" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="BE10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF10" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="BG10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ10" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK10" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM10" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP10" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="31">
+        <v>12</v>
+      </c>
+      <c r="BR10" s="31">
+        <v>2</v>
+      </c>
+      <c r="BS10" s="31">
+        <v>20</v>
+      </c>
+      <c r="BT10" s="31">
+        <v>2</v>
+      </c>
+      <c r="BU10" s="31"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA10" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB10" s="31">
+        <v>2</v>
+      </c>
+      <c r="CC10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE10" s="31">
+        <v>43800</v>
+      </c>
+      <c r="CF10" s="31"/>
+      <c r="CG10" s="31"/>
+      <c r="CH10" s="31">
+        <v>588765</v>
+      </c>
+      <c r="CI10" s="31"/>
+      <c r="CJ10" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK10" s="31">
+        <v>10000</v>
+      </c>
+      <c r="CL10" s="31">
+        <v>12</v>
+      </c>
+      <c r="CM10" s="31">
+        <v>5000</v>
+      </c>
+      <c r="CN10" s="31">
+        <v>20000</v>
+      </c>
+      <c r="CO10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP10" s="31"/>
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="CS10" s="31">
+        <v>10000</v>
+      </c>
+      <c r="CT10" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU10" s="31">
+        <v>12</v>
+      </c>
+      <c r="CV10" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW10" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX10" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CU10">
+      <c r="CY10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ10" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="CS11"/>
-      <c r="CT11" t="s">
+      <c r="DA10" s="31"/>
+      <c r="DB10" s="31"/>
+      <c r="DC10" s="31"/>
+      <c r="DD10" s="31"/>
+      <c r="DE10" s="31"/>
+      <c r="DF10" s="31"/>
+      <c r="DG10" s="31"/>
+      <c r="DH10" s="31"/>
+      <c r="DI10" s="31"/>
+      <c r="DJ10" s="31"/>
+      <c r="DK10" s="31"/>
+      <c r="DL10" s="31"/>
+      <c r="DM10" s="31"/>
+    </row>
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="31">
+        <v>455854</v>
+      </c>
+      <c r="D11" s="31">
+        <v>8520</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="31">
+        <v>50</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="31">
+        <v>1989</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC11" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD11" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="31">
+        <v>555</v>
+      </c>
+      <c r="AG11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO11" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP11" s="31">
+        <v>12</v>
+      </c>
+      <c r="AQ11" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR11" s="31">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT11" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU11" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB11" s="31">
+        <v>411006</v>
+      </c>
+      <c r="BC11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD11" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="BE11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="BG11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ11" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK11" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM11" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN11" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP11" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>12</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>2</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>20</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>2</v>
+      </c>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA11" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB11" s="31">
+        <v>2</v>
+      </c>
+      <c r="CC11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE11" s="31">
+        <v>43800</v>
+      </c>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31">
+        <v>5552200</v>
+      </c>
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK11" s="31">
+        <v>10000</v>
+      </c>
+      <c r="CL11" s="31">
+        <v>12</v>
+      </c>
+      <c r="CM11" s="31">
+        <v>5000</v>
+      </c>
+      <c r="CN11" s="31">
+        <v>20000</v>
+      </c>
+      <c r="CO11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="CS11" s="31">
+        <v>10000</v>
+      </c>
+      <c r="CT11" s="31">
+        <v>50000</v>
+      </c>
+      <c r="CU11" s="31">
+        <v>12</v>
+      </c>
+      <c r="CV11" s="31">
+        <v>120345</v>
+      </c>
+      <c r="CW11" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX11" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CU11">
+      <c r="CY11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ11" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="31"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="31"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+    </row>
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -6326,21 +7330,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6360,30 +7364,30 @@
         <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>129</v>
@@ -6395,22 +7399,22 @@
         <v>134</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>129</v>
@@ -6422,26 +7426,26 @@
         <v>134</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>129</v>
@@ -6454,15 +7458,15 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>129</v>
@@ -6471,7 +7475,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -6490,19 +7494,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6510,70 +7514,70 @@
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
@@ -6585,10 +7589,10 @@
         <v>11111111111</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N2" s="11">
         <v>123460</v>
@@ -6597,34 +7601,34 @@
         <v>11111111111</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -6636,10 +7640,10 @@
         <v>11111111111</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N3" s="11">
         <v>123461</v>
@@ -6648,34 +7652,34 @@
         <v>11111111111</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -6687,10 +7691,10 @@
         <v>11111111111</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N4" s="11">
         <v>123461</v>
@@ -6699,34 +7703,34 @@
         <v>11111111111</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -6738,10 +7742,10 @@
         <v>11111111111</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N5" s="11">
         <v>123460</v>
@@ -6750,34 +7754,34 @@
         <v>11111111111</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
@@ -6789,10 +7793,10 @@
         <v>11111111111</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N6" s="11">
         <v>123460</v>
@@ -6801,10 +7805,10 @@
         <v>11111111111</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="R6" s="19"/>
     </row>
@@ -6819,13 +7823,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6833,56 +7837,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C2" s="11">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C3" s="11">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6896,12 +7900,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6909,33 +7913,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>110</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
@@ -6944,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G2" s="11">
         <v>1888887</v>
@@ -6956,7 +7960,7 @@
         <v>55554</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6970,12 +7974,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6983,84 +7987,84 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2">
         <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7074,14 +8078,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7089,56 +8093,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7154,222 +8158,222 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="D2" s="9">
         <v>8520</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>134</v>
@@ -7380,23 +8384,23 @@
       <c r="L2" s="9"/>
       <c r="M2" s="28"/>
       <c r="N2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="U2" s="9">
         <v>16</v>
@@ -7407,16 +8411,16 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="32" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AA2" s="9">
         <v>45665456</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>34</v>
@@ -7428,25 +8432,25 @@
         <v>23564589</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AK2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AM2" s="9">
         <v>411006</v>
@@ -7455,39 +8459,39 @@
         <v>124421</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
       <c r="AU2" s="9" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AW2" s="32" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
+++ b/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="483">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -932,9 +932,6 @@
     <t>Collect Portal Support</t>
   </si>
   <si>
-    <t>TC1InstituteCreation</t>
-  </si>
-  <si>
     <t>TC264384_Privilege validation for RuPay Settlement Bin Configurations</t>
   </si>
   <si>
@@ -1103,9 +1100,6 @@
     <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
   <si>
-    <t>AdminBankName</t>
-  </si>
-  <si>
     <t>Reference Currency</t>
   </si>
   <si>
@@ -1160,15 +1154,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>FEMA</t>
-  </si>
-  <si>
-    <t>1100440052</t>
-  </si>
-  <si>
     <t>English [EN]</t>
   </si>
   <si>
@@ -1178,9 +1163,6 @@
     <t>testuser124421@gmail.com</t>
   </si>
   <si>
-    <t>5431267812</t>
-  </si>
-  <si>
     <t>July/2/2018</t>
   </si>
   <si>
@@ -1190,15 +1172,9 @@
     <t>Record Added Successfully.</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>Batch [ROLE000052]</t>
   </si>
   <si>
-    <t>NewUser</t>
-  </si>
-  <si>
     <t>TC417600_Additional field for Customer Master Download file</t>
   </si>
   <si>
@@ -1398,6 +1374,108 @@
   </si>
   <si>
     <t>March/10/2050</t>
+  </si>
+  <si>
+    <t>AdaptiveEcomm</t>
+  </si>
+  <si>
+    <t>MPIN Enabled</t>
+  </si>
+  <si>
+    <t>SMS Service Provider</t>
+  </si>
+  <si>
+    <t>CollectPortalAdminName</t>
+  </si>
+  <si>
+    <t>AgentPortalAdminName</t>
+  </si>
+  <si>
+    <t>CreatedInstitution</t>
+  </si>
+  <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>PREISS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SDN Name Address [SDN1]</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>CollectAdm</t>
+  </si>
+  <si>
+    <t>Agentadm</t>
+  </si>
+  <si>
+    <t>ISSUINGXH</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>DEBISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCR</t>
+  </si>
+  <si>
+    <t>CREISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
+  </si>
+  <si>
+    <t>DEBPRE</t>
+  </si>
+  <si>
+    <t>DEBPREXF</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPRCR</t>
+  </si>
+  <si>
+    <t>PRECRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDTCR</t>
+  </si>
+  <si>
+    <t>DEBCRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAll</t>
+  </si>
+  <si>
+    <t>ALLISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCWithoutAgentPortal</t>
+  </si>
+  <si>
+    <t>PREWOAGNT</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCRWithoutCollectPortal</t>
+  </si>
+  <si>
+    <t>CREWOCOLL</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAllWithoutAgentCollect</t>
+  </si>
+  <si>
+    <t>ALLWOAGCO</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,8 +1509,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1541,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1535,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1598,12 +1702,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1915,20 +2025,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2495,12 +2605,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2554,9 +2664,9 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>201</v>
@@ -2607,9 +2717,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>201</v>
@@ -2660,9 +2770,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>201</v>
@@ -2713,9 +2823,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>201</v>
@@ -2766,9 +2876,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>201</v>
@@ -2832,29 +2942,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2863,144 +2973,144 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="B4" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>321</v>
+      <c r="D4" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>321</v>
+      <c r="C5" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>321</v>
+      <c r="C6" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>321</v>
+      <c r="C7" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>321</v>
+      <c r="C8" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3016,127 +3126,127 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>317</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>327</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>328</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3154,147 +3264,147 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>333</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3313,87 +3423,87 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>350</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3417,33 +3527,33 @@
       <selection activeCell="CU3" sqref="CU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3482,10 +3592,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -3674,16 +3784,16 @@
         <v>50</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CD1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>94</v>
@@ -3731,79 +3841,79 @@
         <v>60</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="CX1" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="CZ1" s="4" t="s">
         <v>193</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="DI1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="DF1" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="DG1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="DH1" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -3826,16 +3936,16 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q2" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>246</v>
@@ -3847,13 +3957,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -3877,7 +3987,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -3886,7 +3996,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -3898,7 +4008,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -3907,13 +4017,13 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>147</v>
@@ -3941,19 +4051,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -3981,10 +4091,10 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR2" s="28"/>
       <c r="BS2" s="9"/>
@@ -4000,7 +4110,7 @@
         <v>195</v>
       </c>
       <c r="BY2" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ2" s="9" t="s">
         <v>48</v>
@@ -4012,7 +4122,7 @@
         <v>61</v>
       </c>
       <c r="CC2" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
@@ -4021,16 +4131,16 @@
         <v>133</v>
       </c>
       <c r="CH2" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI2" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ2" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK2" s="28" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL2" s="28" t="s">
         <v>91</v>
@@ -4039,16 +4149,16 @@
         <v>138</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO2" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP2" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ2" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ2" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR2" s="28" t="s">
         <v>200</v>
@@ -4056,14 +4166,14 @@
       <c r="CS2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CT2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="CU2" s="9">
         <v>100</v>
       </c>
-      <c r="CV2" s="37" t="s">
-        <v>450</v>
+      <c r="CV2" s="35" t="s">
+        <v>442</v>
       </c>
       <c r="CW2" s="9">
         <v>5</v>
@@ -4075,16 +4185,16 @@
         <v>71</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="DB2" s="9">
         <v>6</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="DD2" s="9">
         <v>2</v>
@@ -4096,13 +4206,13 @@
         <v>1</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="DH2" s="9">
         <v>3</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="DJ2" s="9">
         <v>3</v>
@@ -4110,27 +4220,27 @@
       <c r="DK2" s="9"/>
       <c r="DL2" s="9"/>
       <c r="DM2" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4153,16 +4263,16 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>246</v>
@@ -4174,13 +4284,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4204,7 +4314,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4213,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4225,7 +4335,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4234,13 +4344,13 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>148</v>
@@ -4268,19 +4378,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -4308,17 +4418,17 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR3" s="28"/>
       <c r="BS3" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU3" s="9" t="s">
         <v>40</v>
@@ -4331,7 +4441,7 @@
         <v>195</v>
       </c>
       <c r="BY3" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ3" s="9" t="s">
         <v>48</v>
@@ -4350,16 +4460,16 @@
         <v>133</v>
       </c>
       <c r="CH3" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI3" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ3" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK3" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL3" s="28" t="s">
         <v>91</v>
@@ -4368,16 +4478,16 @@
         <v>138</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO3" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP3" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ3" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ3" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR3" s="29" t="s">
         <v>200</v>
@@ -4392,24 +4502,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4432,16 +4542,16 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q4" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>246</v>
@@ -4453,13 +4563,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4483,7 +4593,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4492,7 +4602,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4504,7 +4614,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4513,13 +4623,13 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS4" s="28" t="s">
         <v>152</v>
@@ -4547,19 +4657,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -4587,17 +4697,17 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR4" s="28"/>
       <c r="BS4" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU4" s="9" t="s">
         <v>40</v>
@@ -4610,7 +4720,7 @@
         <v>195</v>
       </c>
       <c r="BY4" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ4" s="9" t="s">
         <v>48</v>
@@ -4629,16 +4739,16 @@
         <v>133</v>
       </c>
       <c r="CH4" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI4" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ4" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK4" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL4" s="28" t="s">
         <v>91</v>
@@ -4647,16 +4757,16 @@
         <v>138</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO4" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP4" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ4" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ4" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR4" s="29" t="s">
         <v>200</v>
@@ -4671,24 +4781,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -4711,16 +4821,16 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q5" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>246</v>
@@ -4732,13 +4842,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -4762,7 +4872,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -4771,7 +4881,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -4783,7 +4893,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -4792,13 +4902,13 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>158</v>
@@ -4826,19 +4936,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -4866,17 +4976,17 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR5" s="28"/>
       <c r="BS5" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU5" s="9" t="s">
         <v>40</v>
@@ -4889,7 +4999,7 @@
         <v>195</v>
       </c>
       <c r="BY5" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ5" s="9" t="s">
         <v>48</v>
@@ -4908,16 +5018,16 @@
         <v>133</v>
       </c>
       <c r="CH5" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI5" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ5" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK5" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL5" s="28" t="s">
         <v>91</v>
@@ -4926,16 +5036,16 @@
         <v>138</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO5" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP5" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ5" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ5" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR5" s="29" t="s">
         <v>200</v>
@@ -4950,24 +5060,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -4990,16 +5100,16 @@
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q6" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>246</v>
@@ -5011,13 +5121,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5041,7 +5151,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5050,7 +5160,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5062,7 +5172,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5071,13 +5181,13 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS6" s="28" t="s">
         <v>165</v>
@@ -5105,19 +5215,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -5145,17 +5255,17 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR6" s="28"/>
       <c r="BS6" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU6" s="9" t="s">
         <v>40</v>
@@ -5168,7 +5278,7 @@
         <v>195</v>
       </c>
       <c r="BY6" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ6" s="9" t="s">
         <v>48</v>
@@ -5187,16 +5297,16 @@
         <v>133</v>
       </c>
       <c r="CH6" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI6" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ6" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK6" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL6" s="28" t="s">
         <v>91</v>
@@ -5205,16 +5315,16 @@
         <v>138</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO6" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP6" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ6" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ6" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR6" s="29" t="s">
         <v>200</v>
@@ -5229,24 +5339,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5269,16 +5379,16 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q7" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S7" s="29" t="s">
         <v>246</v>
@@ -5290,13 +5400,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5320,7 +5430,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5329,7 +5439,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5341,7 +5451,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5350,13 +5460,13 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>171</v>
@@ -5384,19 +5494,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -5424,17 +5534,17 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR7" s="28"/>
       <c r="BS7" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU7" s="9" t="s">
         <v>40</v>
@@ -5447,7 +5557,7 @@
         <v>195</v>
       </c>
       <c r="BY7" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ7" s="9" t="s">
         <v>48</v>
@@ -5461,23 +5571,23 @@
       <c r="CC7" s="9"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="CF7" s="28"/>
       <c r="CG7" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH7" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI7" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ7" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK7" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL7" s="28" t="s">
         <v>91</v>
@@ -5486,16 +5596,16 @@
         <v>138</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO7" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP7" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ7" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ7" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR7" s="29" t="s">
         <v>200</v>
@@ -5510,24 +5620,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5550,16 +5660,16 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q8" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>246</v>
@@ -5571,13 +5681,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5601,7 +5711,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -5610,7 +5720,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -5622,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -5631,13 +5741,13 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS8" s="28" t="s">
         <v>177</v>
@@ -5665,19 +5775,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -5705,17 +5815,17 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BU8" s="9" t="s">
         <v>40</v>
@@ -5728,7 +5838,7 @@
         <v>195</v>
       </c>
       <c r="BY8" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ8" s="9" t="s">
         <v>48</v>
@@ -5742,23 +5852,23 @@
       <c r="CC8" s="9"/>
       <c r="CD8" s="9"/>
       <c r="CE8" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="CF8" s="28"/>
       <c r="CG8" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH8" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CI8" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="CJ8" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="CK8" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="CL8" s="28" t="s">
         <v>91</v>
@@ -5767,16 +5877,16 @@
         <v>138</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="CO8" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="CP8" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="CQ8" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="CQ8" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="CR8" s="29" t="s">
         <v>200</v>
@@ -5791,7 +5901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -5800,7 +5910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -5809,7 +5919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -5818,502 +5928,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -6326,21 +6436,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6375,7 +6485,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -6402,7 +6512,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -6433,7 +6543,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -6454,7 +6564,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -6490,19 +6600,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6553,7 +6663,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -6604,7 +6714,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -6655,7 +6765,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -6706,7 +6816,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -6757,7 +6867,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -6819,13 +6929,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6845,7 +6955,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -6865,7 +6975,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -6896,12 +7006,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6930,7 +7040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -6970,12 +7080,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6998,7 +7108,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -7021,7 +7131,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -7042,7 +7152,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -7074,14 +7184,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7101,7 +7211,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -7121,7 +7231,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -7148,354 +7258,1833 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:CJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AH1" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL1" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA1" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="BB1" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC1" s="36" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="38">
+        <v>16</v>
+      </c>
+      <c r="R2" s="38">
+        <v>16</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y2" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC2" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD2" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG2" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH2" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK2" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN2" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO2" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="AP2" s="38" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="9">
-        <v>8520</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="AT2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="AW2" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX2" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ2" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA2" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB2" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC2" s="38"/>
+    </row>
+    <row r="3" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="G3" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="K3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="O3" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="9">
+      <c r="P3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="38">
         <v>16</v>
       </c>
-      <c r="V2" s="9">
+      <c r="R3" s="38">
         <v>16</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="32" t="s">
+      <c r="S3" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF3" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG3" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH3" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK3" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL3" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM3" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN3" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO3" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP3" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW3" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AX3" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ3" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA3" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+    </row>
+    <row r="4" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>16</v>
+      </c>
+      <c r="R4" s="38">
+        <v>16</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W4" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="Y4" s="38">
         <v>45665456</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="Z4" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AA4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AB4" s="38">
         <v>1113332</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AC4" s="38">
         <v>23564589</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AD4" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AE4" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AF4" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AG4" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AH4" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AI4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AJ4" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AK4" s="38">
         <v>411006</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AL4" s="38">
         <v>124421</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AM4" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN4" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO4" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP4" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW4" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX4" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AZ4" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA4" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+    </row>
+    <row r="5" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>16</v>
+      </c>
+      <c r="R5" s="38">
+        <v>16</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V5" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y5" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE5" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF5" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG5" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH5" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK5" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN5" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AO5" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP5" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>386</v>
-      </c>
+      <c r="AU5" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW5" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX5" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ5" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA5" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB5" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="BC5" s="38"/>
+    </row>
+    <row r="6" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>16</v>
+      </c>
+      <c r="R6" s="38">
+        <v>16</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z6" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE6" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF6" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG6" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH6" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK6" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN6" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO6" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP6" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW6" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX6" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ6" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB6" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC6" s="38"/>
+    </row>
+    <row r="7" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>16</v>
+      </c>
+      <c r="R7" s="38">
+        <v>16</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W7" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y7" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF7" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG7" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH7" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK7" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN7" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO7" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP7" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW7" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX7" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ7" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA7" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB7" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC7" s="38"/>
+    </row>
+    <row r="8" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>16</v>
+      </c>
+      <c r="R8" s="38">
+        <v>16</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W8" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y8" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE8" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF8" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG8" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH8" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK8" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN8" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO8" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP8" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW8" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX8" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ8" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA8" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB8" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC8" s="38"/>
+    </row>
+    <row r="9" spans="1:55" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>16</v>
+      </c>
+      <c r="R9" s="38">
+        <v>16</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W9" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y9" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE9" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF9" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG9" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH9" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK9" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN9" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO9" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP9" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW9" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX9" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ9" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA9" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+    </row>
+    <row r="10" spans="1:55" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>16</v>
+      </c>
+      <c r="R10" s="38">
+        <v>16</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W10" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE10" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF10" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG10" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH10" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK10" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN10" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO10" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP10" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW10" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX10" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ10" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA10" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+    </row>
+    <row r="11" spans="1:55" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>16</v>
+      </c>
+      <c r="R11" s="38">
+        <v>16</v>
+      </c>
+      <c r="S11" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="T11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="W11" s="38">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y11" s="38">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="38">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="38">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE11" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF11" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG11" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH11" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK11" s="38">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="38">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN11" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO11" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP11" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="38">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW11" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX11" s="38">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ11" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA11" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB11" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC11" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="AD2" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="AD3" r:id="rId4"/>
+    <hyperlink ref="X5" r:id="rId5"/>
+    <hyperlink ref="AD5" r:id="rId6"/>
+    <hyperlink ref="X6" r:id="rId7"/>
+    <hyperlink ref="AD6" r:id="rId8"/>
+    <hyperlink ref="X4" r:id="rId9"/>
+    <hyperlink ref="AD4" r:id="rId10"/>
+    <hyperlink ref="X7" r:id="rId11"/>
+    <hyperlink ref="AD7" r:id="rId12"/>
+    <hyperlink ref="X8" r:id="rId13"/>
+    <hyperlink ref="AD8" r:id="rId14"/>
+    <hyperlink ref="X9" r:id="rId15"/>
+    <hyperlink ref="AD9" r:id="rId16"/>
+    <hyperlink ref="X10" r:id="rId17"/>
+    <hyperlink ref="AD10" r:id="rId18"/>
+    <hyperlink ref="X11" r:id="rId19"/>
+    <hyperlink ref="AD11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
+++ b/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="449">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1368,6 +1368,12 @@
   </si>
   <si>
     <t>TC264321_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Activated</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1574,6 +1580,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3383,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection activeCell="DD3" sqref="DD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3754,7 +3764,9 @@
       <c r="DM1" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="DN1" s="4"/>
+      <c r="DN1" s="4" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3993,11 +4005,11 @@
       <c r="CF2" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="CG2" s="9"/>
+      <c r="CG2" s="36"/>
       <c r="CH2" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="CI2" s="28"/>
+      <c r="CI2" s="38"/>
       <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
@@ -4060,7 +4072,7 @@
       <c r="DE2" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="DF2" s="9" t="s">
+      <c r="DF2" s="36" t="s">
         <v>425</v>
       </c>
       <c r="DG2" s="9" t="s">
@@ -4083,6 +4095,9 @@
       </c>
       <c r="DM2" s="9" t="s">
         <v>440</v>
+      </c>
+      <c r="DN2" s="39" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4322,11 +4337,11 @@
       <c r="CF3" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="CG3" s="9"/>
+      <c r="CG3" s="36"/>
       <c r="CH3" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="CI3" s="28"/>
+      <c r="CI3" s="38"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
@@ -4392,26 +4407,29 @@
       <c r="DF3" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="DG3" s="31">
+      <c r="DG3" s="9">
         <v>6</v>
       </c>
-      <c r="DH3" s="31" t="s">
+      <c r="DH3" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="DI3" s="31">
+      <c r="DI3" s="9">
         <v>2</v>
       </c>
-      <c r="DJ3" s="31" t="s">
+      <c r="DJ3" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="DK3" s="31">
+      <c r="DK3" s="9">
         <v>1</v>
       </c>
-      <c r="DL3" s="31" t="s">
+      <c r="DL3" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="DM3" s="31">
+      <c r="DM3" s="9">
         <v>3</v>
+      </c>
+      <c r="DN3" s="39" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4649,11 +4667,11 @@
         <v>61</v>
       </c>
       <c r="CF4" s="28"/>
-      <c r="CG4" s="9"/>
+      <c r="CG4" s="36"/>
       <c r="CH4" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="CI4" s="28"/>
+      <c r="CI4" s="38"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
@@ -4707,13 +4725,16 @@
       <c r="DD4" s="31"/>
       <c r="DE4" s="31"/>
       <c r="DF4" s="31"/>
-      <c r="DG4" s="31"/>
-      <c r="DH4" s="31"/>
-      <c r="DI4" s="31"/>
-      <c r="DJ4" s="31"/>
-      <c r="DK4" s="31"/>
-      <c r="DL4" s="31"/>
-      <c r="DM4" s="31"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
+      <c r="DL4" s="9"/>
+      <c r="DM4" s="9"/>
+      <c r="DN4" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -4950,11 +4971,11 @@
         <v>61</v>
       </c>
       <c r="CF5" s="28"/>
-      <c r="CG5" s="9"/>
+      <c r="CG5" s="36"/>
       <c r="CH5" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="CI5" s="28"/>
+      <c r="CI5" s="38"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
@@ -5008,13 +5029,16 @@
       <c r="DD5" s="31"/>
       <c r="DE5" s="31"/>
       <c r="DF5" s="31"/>
-      <c r="DG5" s="31"/>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="31"/>
-      <c r="DJ5" s="31"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="31"/>
-      <c r="DM5" s="31"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
+      <c r="DM5" s="9"/>
+      <c r="DN5" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="6" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -5251,11 +5275,11 @@
         <v>61</v>
       </c>
       <c r="CF6" s="28"/>
-      <c r="CG6" s="9"/>
+      <c r="CG6" s="36"/>
       <c r="CH6" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="CI6" s="28"/>
+      <c r="CI6" s="38"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
@@ -5309,13 +5333,16 @@
       <c r="DD6" s="31"/>
       <c r="DE6" s="31"/>
       <c r="DF6" s="31"/>
-      <c r="DG6" s="31"/>
-      <c r="DH6" s="31"/>
-      <c r="DI6" s="31"/>
-      <c r="DJ6" s="31"/>
-      <c r="DK6" s="31"/>
-      <c r="DL6" s="31"/>
-      <c r="DM6" s="31"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="9"/>
+      <c r="DI6" s="9"/>
+      <c r="DJ6" s="9"/>
+      <c r="DK6" s="9"/>
+      <c r="DL6" s="9"/>
+      <c r="DM6" s="9"/>
+      <c r="DN6" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -5552,11 +5579,11 @@
         <v>61</v>
       </c>
       <c r="CF7" s="28"/>
-      <c r="CG7" s="9"/>
+      <c r="CG7" s="36"/>
       <c r="CH7" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="CI7" s="28"/>
+      <c r="CI7" s="38"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
@@ -5610,13 +5637,16 @@
       <c r="DD7" s="31"/>
       <c r="DE7" s="31"/>
       <c r="DF7" s="31"/>
-      <c r="DG7" s="31"/>
-      <c r="DH7" s="31"/>
-      <c r="DI7" s="31"/>
-      <c r="DJ7" s="31"/>
-      <c r="DK7" s="31"/>
-      <c r="DL7" s="31"/>
-      <c r="DM7" s="31"/>
+      <c r="DG7" s="9"/>
+      <c r="DH7" s="9"/>
+      <c r="DI7" s="9"/>
+      <c r="DJ7" s="9"/>
+      <c r="DK7" s="9"/>
+      <c r="DL7" s="9"/>
+      <c r="DM7" s="9"/>
+      <c r="DN7" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -5853,11 +5883,11 @@
         <v>61</v>
       </c>
       <c r="CF8" s="28"/>
-      <c r="CG8" s="9"/>
+      <c r="CG8" s="36"/>
       <c r="CH8" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="CI8" s="28"/>
+      <c r="CI8" s="38"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
@@ -5911,13 +5941,16 @@
       <c r="DD8" s="31"/>
       <c r="DE8" s="31"/>
       <c r="DF8" s="31"/>
-      <c r="DG8" s="31"/>
-      <c r="DH8" s="31"/>
-      <c r="DI8" s="31"/>
-      <c r="DJ8" s="31"/>
-      <c r="DK8" s="31"/>
-      <c r="DL8" s="31"/>
-      <c r="DM8" s="31"/>
+      <c r="DG8" s="9"/>
+      <c r="DH8" s="9"/>
+      <c r="DI8" s="9"/>
+      <c r="DJ8" s="9"/>
+      <c r="DK8" s="9"/>
+      <c r="DL8" s="9"/>
+      <c r="DM8" s="9"/>
+      <c r="DN8" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
@@ -6155,7 +6188,7 @@
       </c>
       <c r="CF9" s="31"/>
       <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CH9" s="9">
         <v>552200</v>
       </c>
       <c r="CI9" s="31"/>
@@ -6212,13 +6245,16 @@
       <c r="DD9" s="31"/>
       <c r="DE9" s="31"/>
       <c r="DF9" s="31"/>
-      <c r="DG9" s="31"/>
-      <c r="DH9" s="31"/>
-      <c r="DI9" s="31"/>
-      <c r="DJ9" s="31"/>
-      <c r="DK9" s="31"/>
-      <c r="DL9" s="31"/>
-      <c r="DM9" s="31"/>
+      <c r="DG9" s="9"/>
+      <c r="DH9" s="9"/>
+      <c r="DI9" s="9"/>
+      <c r="DJ9" s="9"/>
+      <c r="DK9" s="9"/>
+      <c r="DL9" s="9"/>
+      <c r="DM9" s="9"/>
+      <c r="DN9" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
@@ -6456,7 +6492,7 @@
       </c>
       <c r="CF10" s="31"/>
       <c r="CG10" s="31"/>
-      <c r="CH10" s="31">
+      <c r="CH10" s="9">
         <v>588765</v>
       </c>
       <c r="CI10" s="31"/>
@@ -6513,13 +6549,16 @@
       <c r="DD10" s="31"/>
       <c r="DE10" s="31"/>
       <c r="DF10" s="31"/>
-      <c r="DG10" s="31"/>
-      <c r="DH10" s="31"/>
-      <c r="DI10" s="31"/>
-      <c r="DJ10" s="31"/>
-      <c r="DK10" s="31"/>
-      <c r="DL10" s="31"/>
-      <c r="DM10" s="31"/>
+      <c r="DG10" s="9"/>
+      <c r="DH10" s="9"/>
+      <c r="DI10" s="9"/>
+      <c r="DJ10" s="9"/>
+      <c r="DK10" s="9"/>
+      <c r="DL10" s="9"/>
+      <c r="DM10" s="9"/>
+      <c r="DN10" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -6757,7 +6796,7 @@
       </c>
       <c r="CF11" s="31"/>
       <c r="CG11" s="31"/>
-      <c r="CH11" s="31">
+      <c r="CH11" s="9">
         <v>5552200</v>
       </c>
       <c r="CI11" s="31"/>
@@ -6814,16 +6853,29 @@
       <c r="DD11" s="31"/>
       <c r="DE11" s="31"/>
       <c r="DF11" s="31"/>
-      <c r="DG11" s="31"/>
-      <c r="DH11" s="31"/>
-      <c r="DI11" s="31"/>
-      <c r="DJ11" s="31"/>
-      <c r="DK11" s="31"/>
-      <c r="DL11" s="31"/>
-      <c r="DM11" s="31"/>
+      <c r="DG11" s="9"/>
+      <c r="DH11" s="9"/>
+      <c r="DI11" s="9"/>
+      <c r="DJ11" s="9"/>
+      <c r="DK11" s="9"/>
+      <c r="DL11" s="9"/>
+      <c r="DM11" s="9"/>
+      <c r="DN11" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS12"/>
+      <c r="DG12" s="2"/>
+      <c r="DH12" s="2"/>
+      <c r="DI12" s="2"/>
+      <c r="DJ12" s="2"/>
+      <c r="DK12" s="2"/>
+      <c r="DL12" s="2"/>
+      <c r="DM12" s="2"/>
+      <c r="DN12" s="39" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS13"/>

--- a/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
+++ b/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="449">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1355,9 +1355,6 @@
     <t>TC264306_Embossing File Generation_VISA</t>
   </si>
   <si>
-    <t>5552200</t>
-  </si>
-  <si>
     <t>TC264315_Embossing File Generation_VISA</t>
   </si>
   <si>
@@ -1374,6 +1371,9 @@
   </si>
   <si>
     <t>Activated</t>
+  </si>
+  <si>
+    <t>552200</t>
   </si>
 </sst>
 </file>
@@ -3393,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
-      <selection activeCell="DD3" sqref="DD3"/>
+    <sheetView tabSelected="1" topLeftCell="BW7" workbookViewId="0">
+      <selection activeCell="CE9" sqref="CE9:CE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3765,7 +3765,7 @@
         <v>422</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4097,7 +4097,7 @@
         <v>440</v>
       </c>
       <c r="DN2" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="CG3" s="36"/>
       <c r="CH3" s="28" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="CI3" s="38"/>
       <c r="CJ3" s="28" t="s">
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="DN3" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4733,12 +4733,12 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>343</v>
@@ -4973,7 +4973,7 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="36"/>
       <c r="CH5" s="28" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="CI5" s="38"/>
       <c r="CJ5" s="28" t="s">
@@ -5037,7 +5037,7 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
@@ -5341,12 +5341,12 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>343</v>
@@ -5581,7 +5581,7 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="36"/>
       <c r="CH7" s="28" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="CI7" s="38"/>
       <c r="CJ7" s="28" t="s">
@@ -5645,7 +5645,7 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -5949,12 +5949,12 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>343</v>
@@ -6183,13 +6183,13 @@
       <c r="CD9" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="CE9" s="31">
-        <v>43800</v>
+      <c r="CE9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="CF9" s="31"/>
       <c r="CG9" s="31"/>
-      <c r="CH9" s="9">
-        <v>552200</v>
+      <c r="CH9" s="28" t="s">
+        <v>448</v>
       </c>
       <c r="CI9" s="31"/>
       <c r="CJ9" s="31" t="s">
@@ -6253,7 +6253,7 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.3">
@@ -6487,8 +6487,8 @@
       <c r="CD10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="CE10" s="31">
-        <v>43800</v>
+      <c r="CE10" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="CF10" s="31"/>
       <c r="CG10" s="31"/>
@@ -6557,12 +6557,12 @@
       <c r="DL10" s="9"/>
       <c r="DM10" s="9"/>
       <c r="DN10" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>343</v>
@@ -6791,13 +6791,13 @@
       <c r="CD11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="CE11" s="31">
-        <v>43800</v>
+      <c r="CE11" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="CF11" s="31"/>
       <c r="CG11" s="31"/>
-      <c r="CH11" s="9">
-        <v>5552200</v>
+      <c r="CH11" s="28" t="s">
+        <v>448</v>
       </c>
       <c r="CI11" s="31"/>
       <c r="CJ11" s="31" t="s">
@@ -6861,7 +6861,7 @@
       <c r="DL11" s="9"/>
       <c r="DM11" s="9"/>
       <c r="DN11" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.3">
@@ -6874,7 +6874,7 @@
       <c r="DL12" s="2"/>
       <c r="DM12" s="2"/>
       <c r="DN12" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.3">

--- a/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
+++ b/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="450">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1374,6 +1374,9 @@
   </si>
   <si>
     <t>552200</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
 </sst>
 </file>
@@ -3393,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW7" workbookViewId="0">
-      <selection activeCell="CE9" sqref="CE9:CE11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3773,7 +3776,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>393</v>
@@ -4105,7 +4108,7 @@
         <v>441</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>393</v>
@@ -4437,7 +4440,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>393</v>
@@ -4741,7 +4744,7 @@
         <v>442</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>393</v>
@@ -5045,7 +5048,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>393</v>
@@ -5349,7 +5352,7 @@
         <v>443</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>393</v>
@@ -5653,7 +5656,7 @@
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>393</v>
@@ -5956,8 +5959,8 @@
       <c r="A9" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>343</v>
+      <c r="B9" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="C9" s="31">
         <v>455854</v>
@@ -6260,8 +6263,8 @@
       <c r="A10" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>343</v>
+      <c r="B10" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="C10" s="31">
         <v>455854</v>
@@ -6564,8 +6567,8 @@
       <c r="A11" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>343</v>
+      <c r="B11" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="C11" s="31">
         <v>455854</v>
@@ -7373,8 +7376,12 @@
       <c r="CS177"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
+++ b/src/main/resources/config/demoDevCloud/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,19 @@
     <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId5"/>
     <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId6"/>
     <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
-    <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
+    <sheet name="Institute" sheetId="5" r:id="rId8"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId9"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId10"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId11"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="449">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -614,9 +613,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>COSDEBIT [123456]</t>
-  </si>
-  <si>
     <t>BRANCH [100000]</t>
   </si>
   <si>
@@ -761,9 +757,6 @@
     <t>ErrorMessage</t>
   </si>
   <si>
-    <t>TC01_SuspenseAccount</t>
-  </si>
-  <si>
     <t>Suspense Account</t>
   </si>
   <si>
@@ -1377,6 +1370,9 @@
   </si>
   <si>
     <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+  </si>
+  <si>
+    <t>Auto001</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -2294,7 +2290,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -2471,343 +2467,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>123459</v>
-      </c>
-      <c r="K2" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="N2" s="11">
-        <v>123460</v>
-      </c>
-      <c r="O2" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>123456</v>
-      </c>
-      <c r="K3" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="N3" s="11">
-        <v>123461</v>
-      </c>
-      <c r="O3" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>123456</v>
-      </c>
-      <c r="K4" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="N4" s="11">
-        <v>123461</v>
-      </c>
-      <c r="O4" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>123459</v>
-      </c>
-      <c r="K5" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="N5" s="11">
-        <v>123460</v>
-      </c>
-      <c r="O5" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>123459</v>
-      </c>
-      <c r="K6" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" s="11">
-        <v>123460</v>
-      </c>
-      <c r="O6" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2831,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2848,142 +2507,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +2650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3024,43 +2683,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>299</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
@@ -3068,42 +2727,42 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>312</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>314</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -3129,7 +2788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3159,84 +2818,84 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>318</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>306</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -3244,40 +2903,40 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>306</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3288,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3314,69 +2973,69 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>329</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>336</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3396,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3465,10 +3124,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -3618,7 +3277,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -3627,10 +3286,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -3666,16 +3325,16 @@
         <v>50</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CH1" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CI1" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CJ1" s="4" t="s">
         <v>94</v>
@@ -3696,10 +3355,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -3729,46 +3388,46 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="DC1" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="DC1" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
       <c r="DF1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="DH1" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="DL1" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="DN1" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -3776,19 +3435,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -3811,34 +3470,34 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="S2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -3853,7 +3512,7 @@
         <v>120</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>119</v>
@@ -3862,7 +3521,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -3871,7 +3530,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -3883,7 +3542,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -3892,13 +3551,13 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>147</v>
@@ -3926,19 +3585,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -3966,19 +3625,19 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR2" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT2" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU2" s="9"/>
       <c r="BV2" s="9"/>
@@ -3994,7 +3653,7 @@
         <v>183</v>
       </c>
       <c r="CB2" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC2" s="9" t="s">
         <v>48</v>
@@ -4006,27 +3665,27 @@
         <v>61</v>
       </c>
       <c r="CF2" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="CG2" s="36"/>
       <c r="CH2" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="CI2" s="38"/>
       <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK2" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL2" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM2" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN2" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL2" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM2" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN2" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO2" s="9" t="s">
         <v>91</v>
@@ -4037,16 +3696,16 @@
         <v>138</v>
       </c>
       <c r="CS2" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT2" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="CU2" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="CV2" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="CW2" s="9" t="s">
         <v>188</v>
@@ -4058,69 +3717,69 @@
         <v>53</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="DB2" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="DD2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="DE2" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="DF2" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="DG2" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="DH2" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="DF2" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="DG2" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="DH2" s="9" t="s">
-        <v>426</v>
-      </c>
       <c r="DI2" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="DJ2" s="9" t="s">
         <v>192</v>
       </c>
       <c r="DK2" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="DL2" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="DM2" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="DN2" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4143,34 +3802,34 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="S3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q3" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4185,7 +3844,7 @@
         <v>120</v>
       </c>
       <c r="AC3" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>119</v>
@@ -4194,7 +3853,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4203,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4215,7 +3874,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4224,13 +3883,13 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>147</v>
@@ -4258,19 +3917,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -4298,19 +3957,19 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR3" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9"/>
@@ -4326,7 +3985,7 @@
         <v>183</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC3" s="9" t="s">
         <v>48</v>
@@ -4338,27 +3997,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="CG3" s="36"/>
       <c r="CH3" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="CI3" s="38"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL3" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM3" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN3" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL3" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM3" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN3" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -4369,7 +4028,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT3" s="31">
         <v>50000</v>
@@ -4393,7 +4052,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="DB3" s="31">
         <v>5</v>
@@ -4405,16 +4064,16 @@
         <v>71</v>
       </c>
       <c r="DE3" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="DF3" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="DG3" s="9">
         <v>6</v>
       </c>
       <c r="DH3" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="DI3" s="9">
         <v>2</v>
@@ -4426,13 +4085,13 @@
         <v>1</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="DM3" s="9">
         <v>3</v>
       </c>
       <c r="DN3" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4440,19 +4099,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4475,34 +4134,34 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="S4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S4" s="29" t="s">
+      <c r="T4" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4517,7 +4176,7 @@
         <v>120</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD4" s="9" t="s">
         <v>119</v>
@@ -4526,7 +4185,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4535,7 +4194,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4547,7 +4206,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4556,13 +4215,13 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS4" s="28" t="s">
         <v>148</v>
@@ -4571,7 +4230,7 @@
         <v>142</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
@@ -4590,19 +4249,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -4630,19 +4289,19 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR4" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
@@ -4658,7 +4317,7 @@
         <v>183</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -4672,23 +4331,23 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="36"/>
       <c r="CH4" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="CI4" s="38"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL4" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM4" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN4" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL4" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM4" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN4" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -4699,7 +4358,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT4" s="31">
         <v>50000</v>
@@ -4736,27 +4395,27 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -4779,34 +4438,34 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="S5" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S5" s="29" t="s">
+      <c r="T5" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -4821,7 +4480,7 @@
         <v>120</v>
       </c>
       <c r="AC5" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>119</v>
@@ -4830,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -4839,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -4851,7 +4510,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -4860,13 +4519,13 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>148</v>
@@ -4875,7 +4534,7 @@
         <v>142</v>
       </c>
       <c r="AU5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
@@ -4894,19 +4553,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -4934,19 +4593,19 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR5" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
@@ -4962,7 +4621,7 @@
         <v>183</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -4976,23 +4635,23 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="36"/>
       <c r="CH5" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="CI5" s="38"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL5" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM5" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN5" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL5" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM5" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN5" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -5003,7 +4662,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT5" s="31">
         <v>50000</v>
@@ -5040,7 +4699,7 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
@@ -5048,19 +4707,19 @@
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -5083,34 +4742,34 @@
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="S6" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q6" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S6" s="29" t="s">
+      <c r="T6" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U6" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5125,7 +4784,7 @@
         <v>120</v>
       </c>
       <c r="AC6" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD6" s="9" t="s">
         <v>119</v>
@@ -5134,7 +4793,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5143,7 +4802,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5155,7 +4814,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5164,13 +4823,13 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS6" s="28" t="s">
         <v>152</v>
@@ -5179,7 +4838,7 @@
         <v>153</v>
       </c>
       <c r="AU6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
@@ -5198,19 +4857,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -5238,19 +4897,19 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR6" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
@@ -5266,7 +4925,7 @@
         <v>183</v>
       </c>
       <c r="CB6" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC6" s="9" t="s">
         <v>48</v>
@@ -5280,23 +4939,23 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="36"/>
       <c r="CH6" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="CI6" s="38"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL6" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM6" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN6" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL6" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM6" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN6" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -5307,7 +4966,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT6" s="31">
         <v>50000</v>
@@ -5344,27 +5003,27 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5387,34 +5046,34 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="S7" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q7" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S7" s="29" t="s">
+      <c r="T7" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5429,7 +5088,7 @@
         <v>120</v>
       </c>
       <c r="AC7" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD7" s="9" t="s">
         <v>119</v>
@@ -5438,7 +5097,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5447,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5459,7 +5118,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5468,13 +5127,13 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>152</v>
@@ -5483,7 +5142,7 @@
         <v>153</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
@@ -5502,19 +5161,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -5542,19 +5201,19 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR7" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
@@ -5570,7 +5229,7 @@
         <v>183</v>
       </c>
       <c r="CB7" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC7" s="9" t="s">
         <v>48</v>
@@ -5584,23 +5243,23 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="36"/>
       <c r="CH7" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="CI7" s="38"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL7" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM7" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN7" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL7" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM7" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN7" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -5611,7 +5270,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT7" s="31">
         <v>50000</v>
@@ -5648,7 +5307,7 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -5656,19 +5315,19 @@
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5691,34 +5350,34 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="S8" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S8" s="29" t="s">
+      <c r="T8" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="U8" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5733,7 +5392,7 @@
         <v>120</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD8" s="9" t="s">
         <v>119</v>
@@ -5742,7 +5401,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -5751,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -5763,7 +5422,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -5772,13 +5431,13 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AS8" s="28" t="s">
         <v>158</v>
@@ -5787,7 +5446,7 @@
         <v>159</v>
       </c>
       <c r="AU8" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
@@ -5806,19 +5465,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -5846,19 +5505,19 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BR8" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BU8" s="9"/>
       <c r="BV8" s="9"/>
@@ -5874,7 +5533,7 @@
         <v>183</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -5888,23 +5547,23 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="36"/>
       <c r="CH8" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="CI8" s="38"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL8" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM8" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN8" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="CL8" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM8" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN8" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -5915,7 +5574,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CT8" s="31">
         <v>50000</v>
@@ -5952,15 +5611,15 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C9" s="31">
         <v>455854</v>
@@ -5969,7 +5628,7 @@
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -5995,22 +5654,22 @@
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="R9" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="S9" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="Q9" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="S9" s="31" t="s">
+      <c r="T9" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>36</v>
@@ -6037,7 +5696,7 @@
         <v>120</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD9" s="31" t="s">
         <v>119</v>
@@ -6091,7 +5750,7 @@
         <v>159</v>
       </c>
       <c r="AU9" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AV9" s="31" t="s">
         <v>29</v>
@@ -6192,7 +5851,7 @@
       <c r="CF9" s="31"/>
       <c r="CG9" s="31"/>
       <c r="CH9" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="CI9" s="31"/>
       <c r="CJ9" s="31" t="s">
@@ -6256,7 +5915,7 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.3">
@@ -6264,7 +5923,7 @@
         <v>163</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C10" s="31">
         <v>455854</v>
@@ -6273,7 +5932,7 @@
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -6299,22 +5958,22 @@
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="R10" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="S10" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="S10" s="31" t="s">
+      <c r="T10" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="U10" s="31" t="s">
         <v>36</v>
@@ -6341,7 +6000,7 @@
         <v>120</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD10" s="31" t="s">
         <v>119</v>
@@ -6395,7 +6054,7 @@
         <v>166</v>
       </c>
       <c r="AU10" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AV10" s="31" t="s">
         <v>29</v>
@@ -6560,15 +6219,15 @@
       <c r="DL10" s="9"/>
       <c r="DM10" s="9"/>
       <c r="DN10" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C11" s="31">
         <v>455854</v>
@@ -6577,7 +6236,7 @@
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -6603,22 +6262,22 @@
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="R11" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="S11" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="Q11" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="S11" s="31" t="s">
+      <c r="T11" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="U11" s="31" t="s">
         <v>36</v>
@@ -6645,7 +6304,7 @@
         <v>120</v>
       </c>
       <c r="AC11" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD11" s="31" t="s">
         <v>119</v>
@@ -6699,7 +6358,7 @@
         <v>166</v>
       </c>
       <c r="AU11" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AV11" s="31" t="s">
         <v>29</v>
@@ -6800,7 +6459,7 @@
       <c r="CF11" s="31"/>
       <c r="CG11" s="31"/>
       <c r="CH11" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="CI11" s="31"/>
       <c r="CJ11" s="31" t="s">
@@ -6864,7 +6523,7 @@
       <c r="DL11" s="9"/>
       <c r="DM11" s="9"/>
       <c r="DN11" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.3">
@@ -6877,7 +6536,7 @@
       <c r="DL12" s="2"/>
       <c r="DM12" s="2"/>
       <c r="DN12" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.3">
@@ -7390,7 +7049,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7429,13 +7088,13 @@
         <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -7490,10 +7149,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -7573,46 +7232,46 @@
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>184</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="R1" s="20"/>
     </row>
@@ -7624,16 +7283,16 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>185</v>
@@ -7648,10 +7307,10 @@
         <v>11111111111</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="N2" s="11">
         <v>123460</v>
@@ -7660,10 +7319,10 @@
         <v>11111111111</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R2" s="18"/>
     </row>
@@ -7675,16 +7334,16 @@
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>185</v>
@@ -7699,10 +7358,10 @@
         <v>11111111111</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N3" s="11">
         <v>123461</v>
@@ -7711,10 +7370,10 @@
         <v>11111111111</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R3" s="16"/>
     </row>
@@ -7726,16 +7385,16 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>185</v>
@@ -7750,10 +7409,10 @@
         <v>11111111111</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N4" s="11">
         <v>123461</v>
@@ -7762,10 +7421,10 @@
         <v>11111111111</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R4" s="17"/>
     </row>
@@ -7777,16 +7436,16 @@
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>185</v>
@@ -7801,10 +7460,10 @@
         <v>11111111111</v>
       </c>
       <c r="L5" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="N5" s="11">
         <v>123460</v>
@@ -7813,10 +7472,10 @@
         <v>11111111111</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R5" s="16"/>
     </row>
@@ -7828,16 +7487,16 @@
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>185</v>
@@ -7852,10 +7511,10 @@
         <v>11111111111</v>
       </c>
       <c r="L6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="N6" s="11">
         <v>123460</v>
@@ -7864,10 +7523,10 @@
         <v>11111111111</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R6" s="19"/>
     </row>
@@ -7878,342 +7537,372 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="I2" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>247</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1888887</v>
+      </c>
+      <c r="K2" s="11">
+        <v>55554</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1888887</v>
-      </c>
-      <c r="H2" s="11">
-        <v>55554</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>252</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="2">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="2">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="2">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8250,171 +7939,171 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="AN1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D2" s="9">
         <v>8520</v>
@@ -8423,16 +8112,16 @@
         <v>175</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>134</v>
@@ -8443,23 +8132,23 @@
       <c r="L2" s="9"/>
       <c r="M2" s="28"/>
       <c r="N2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U2" s="9">
         <v>16</v>
@@ -8470,16 +8159,16 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA2" s="9">
         <v>45665456</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>34</v>
@@ -8491,25 +8180,25 @@
         <v>23564589</v>
       </c>
       <c r="AF2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AH2" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="AI2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="AK2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM2" s="9">
         <v>411006</v>
@@ -8518,39 +8207,39 @@
         <v>124421</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
       <c r="AU2" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AW2" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY2" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA2" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8561,4 +8250,341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>123459</v>
+      </c>
+      <c r="K2" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="11">
+        <v>123460</v>
+      </c>
+      <c r="O2" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" s="11">
+        <v>123461</v>
+      </c>
+      <c r="O3" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>123456</v>
+      </c>
+      <c r="K4" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" s="11">
+        <v>123461</v>
+      </c>
+      <c r="O4" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>123459</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N5" s="11">
+        <v>123460</v>
+      </c>
+      <c r="O5" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>123459</v>
+      </c>
+      <c r="K6" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="11">
+        <v>123460</v>
+      </c>
+      <c r="O6" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>